--- a/room_schedule_heuristic1.xlsx
+++ b/room_schedule_heuristic1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.639685</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0.1866830000000022</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -513,14 +513,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x10c2f5520&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x11d381160&gt;</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -550,14 +550,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x10c2f5520&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x11d381160&gt;</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -587,14 +587,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x10c2f5520&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x11d381160&gt;</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3.821503</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-1.178497</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -661,17 +661,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11a447fa0&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x11d3816a0&gt;</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -698,17 +698,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11a447fa0&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x11d3816a0&gt;</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -735,17 +735,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11a447fa0&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x11d3816a0&gt;</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-272</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -809,17 +809,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11a331460&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x11d381610&gt;</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -846,17 +846,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11a331460&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x11d381610&gt;</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
         <v>87</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -883,17 +883,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11a331460&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x11d381610&gt;</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-15.00000300000002</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>15.99999699999998</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -957,17 +957,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x10587b610&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x11d381730&gt;</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -994,17 +994,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x10587b610&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x11d381730&gt;</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1031,17 +1031,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x10587b610&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x11d381730&gt;</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.821503</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>15.380065</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11a3314c0&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x11d381700&gt;</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11a3314c0&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x11d381700&gt;</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11a3314c0&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x11d381700&gt;</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1229,13 +1229,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.533081000000003</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.324959000000007</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11a447ee0&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x11d381670&gt;</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11a447ee0&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x11d381670&gt;</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>329</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11a447ee0&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x11d381670&gt;</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1340,13 +1340,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>48.63969</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.4669189999999972</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11a331490&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x11d381790&gt;</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11a331490&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x11d381790&gt;</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>313</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11a331490&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x11d381790&gt;</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1491,16 +1491,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>20</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3205992000000002</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3.821503</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11a447f10&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x11d3816d0&gt;</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1580,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11a447f10&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x11d3816d0&gt;</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11a447f10&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x11d3816d0&gt;</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1654,747 +1654,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>8.324959000000007</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11a447e20&gt;</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>68</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11a447e20&gt;</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>341</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11a447e20&gt;</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>19</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-1.619934999999998</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11a447eb0&gt;</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>45</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11a447eb0&gt;</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>30</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11a447eb0&gt;</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>32</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.821503</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11a447e50&gt;</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>16</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11a447e50&gt;</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>16</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11a447e50&gt;</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>10</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>38.999997</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11a447f40&gt;</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>29</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11a447f40&gt;</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>153</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11a447f40&gt;</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>17</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>空白</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>-54.00000000000003</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11a447e80&gt;</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>15</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11a447e80&gt;</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>54</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11a447e80&gt;</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>12</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/room_schedule_heuristic1.xlsx
+++ b/room_schedule_heuristic1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6.639685</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1866830000000022</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -513,14 +513,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11d381160&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x118465a00&gt;</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -550,14 +550,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11d381160&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x118465a00&gt;</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -587,14 +587,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11d381160&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x118465a00&gt;</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-47.99999499999998</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.178497</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -661,17 +661,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11d3816a0&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x118465760&gt;</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -698,17 +698,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11d3816a0&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x118465760&gt;</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -735,17 +735,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11d3816a0&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x118465760&gt;</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -809,17 +809,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11d381610&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x1184656a0&gt;</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -846,17 +846,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11d381610&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x1184656a0&gt;</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -883,17 +883,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11d381610&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x1184656a0&gt;</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.813316999999998</v>
       </c>
       <c r="D14" t="n">
-        <v>15.99999699999998</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -957,17 +957,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11d381730&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x1184657f0&gt;</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D15" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -994,17 +994,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11d381730&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x1184657f0&gt;</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D16" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1031,17 +1031,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11d381730&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x1184657f0&gt;</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>-1.186683000000002</v>
       </c>
       <c r="E18" t="n">
-        <v>15.380065</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11d381700&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x118465160&gt;</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11d381700&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x118465160&gt;</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E20" t="n">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1179,7 +1179,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11d381700&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x118465160&gt;</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-41.99999699999998</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.324959000000007</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11d381670&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x118465730&gt;</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11d381670&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x118465730&gt;</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>329</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11d381670&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x118465730&gt;</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-2.675040999999993</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4669189999999972</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1401,7 +1401,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11d381790&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x118465640&gt;</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11d381790&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x118465640&gt;</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1475,7 +1475,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11d381790&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x118465640&gt;</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>60.63969</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3.821503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>準備&lt;surgery_class.Surgery object at 0x11d3816d0&gt;</t>
+          <t>準備&lt;surgery_class.Surgery object at 0x1184657c0&gt;</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1571,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -1580,13 +1580,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>手術&lt;surgery_class.Surgery object at 0x11d3816d0&gt;</t>
+          <t>手術&lt;surgery_class.Surgery object at 0x1184657c0&gt;</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1617,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>清掃&lt;surgery_class.Surgery object at 0x11d3816d0&gt;</t>
+          <t>清掃&lt;surgery_class.Surgery object at 0x1184657c0&gt;</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1654,7 +1654,599 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1.619934999999998</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>準備&lt;surgery_class.Surgery object at 0x118465700&gt;</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>45</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>手術&lt;surgery_class.Surgery object at 0x118465700&gt;</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>30</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>清掃&lt;surgery_class.Surgery object at 0x118465700&gt;</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>32</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>9.999994999999984</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>準備&lt;surgery_class.Surgery object at 0x118465790&gt;</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>29</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>手術&lt;surgery_class.Surgery object at 0x118465790&gt;</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>153</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>清掃&lt;surgery_class.Surgery object at 0x118465790&gt;</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>17</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3.821503</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>準備&lt;surgery_class.Surgery object at 0x1184659d0&gt;</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>手術&lt;surgery_class.Surgery object at 0x1184659d0&gt;</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>清掃&lt;surgery_class.Surgery object at 0x1184659d0&gt;</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-268</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>準備&lt;surgery_class.Surgery object at 0x118465610&gt;</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>手術&lt;surgery_class.Surgery object at 0x118465610&gt;</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>清掃&lt;surgery_class.Surgery object at 0x118465610&gt;</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
